--- a/data/trans_bre/P16B04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B04-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B04-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -642,27 +642,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-14,23; 12,79</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-19,84; 5,79</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,77; 15,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,88; 6,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,2%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,84; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,85; 32,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,81; 4,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,84; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,68; 50,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 5,03</t>
         </is>
       </c>
     </row>
@@ -769,27 +769,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,81%</t>
         </is>
       </c>
     </row>
@@ -807,27 +807,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>-41,42; 32,19</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-35,39; 27,1</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,72; 47,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,68; 40,66</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,03%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,13; 6,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,46; 19,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; 7,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,28; 6,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 24,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,12; 7,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B04-Estudios-trans_bre.xlsx
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 12,79</t>
+          <t>-13,48; 13,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 5,79</t>
+          <t>-19,58; 5,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 15,21</t>
+          <t>-14,25; 15,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 6,12</t>
+          <t>-19,99; 6,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 0,0</t>
+          <t>-15,86; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 32,98</t>
+          <t>7,46; 33,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 4,79</t>
+          <t>-7,83; 4,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 0,0</t>
+          <t>-15,86; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 50,9</t>
+          <t>8,56; 53,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 5,03</t>
+          <t>-7,99; 4,91</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-41,42; 32,19</t>
+          <t>-48,52; 31,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 27,1</t>
+          <t>-37,11; 26,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,72; 47,61</t>
+          <t>-57,61; 45,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 40,66</t>
+          <t>-40,84; 36,96</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 6,1</t>
+          <t>-8,46; 6,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 19,04</t>
+          <t>0,83; 19,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 7,03</t>
+          <t>-8,12; 7,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 6,68</t>
+          <t>-8,52; 6,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 24,63</t>
+          <t>0,48; 25,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 7,71</t>
+          <t>-8,26; 8,19</t>
         </is>
       </c>
     </row>
